--- a/fixed/5V_regulator/850nm_16mA/production/ver_0p1_rev_2/BOM_JLCPCB_850nm_16mA.xlsx
+++ b/fixed/5V_regulator/850nm_16mA/production/ver_0p1_rev_2/BOM_JLCPCB_850nm_16mA.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">C3</t>
   </si>
   <si>
-    <t xml:space="preserve">C3012376</t>
+    <t xml:space="preserve">C1525</t>
   </si>
   <si>
     <t xml:space="preserve">LED (850nm)</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">SOT-23-5</t>
   </si>
   <si>
-    <t xml:space="preserve">C686637</t>
+    <t xml:space="preserve">C7972</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
